--- a/biology/Zoologie/Cymatoceras_elegans/Cymatoceras_elegans.xlsx
+++ b/biology/Zoologie/Cymatoceras_elegans/Cymatoceras_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymatoceras elegans est une espèce éteinte de nautiles de la famille éteinte des Cymatoceratidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été trouvée dans des terrains datant du Crétacé en Allemagne, en Suisse et au Royaume-Uni[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été trouvée dans des terrains datant du Crétacé en Allemagne, en Suisse et au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) J. Sowerby, The Mineral conchology of Great Britain; or coloured figures and descriptions of those remains of testaceous animals or shells, which have been preserved at various times and depth in the earth, vol. 2, Part. 21, 1816, pages 29–44 (lire en ligne).</t>
         </is>
